--- a/metadata/periodicals/bmtnaaf/work/elan.xlsx
+++ b/metadata/periodicals/bmtnaaf/work/elan.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="123820"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22220"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="4060" yWindow="0" windowWidth="30460" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+  <si>
+    <t>1er décembre 1916</t>
+  </si>
+  <si>
+    <t>no 9</t>
+  </si>
   <si>
     <t>1er juin 1915</t>
   </si>
@@ -29,9 +39,6 @@
     <t>no 5</t>
   </si>
   <si>
-    <t>11?</t>
-  </si>
-  <si>
     <t>no 6</t>
   </si>
   <si>
@@ -53,6 +60,9 @@
     <t>Reparait</t>
   </si>
   <si>
+    <t>12 février 1916</t>
+  </si>
+  <si>
     <t>no 2</t>
   </si>
   <si>
@@ -65,6 +75,9 @@
     <t>1915-12-15</t>
   </si>
   <si>
+    <t>1916-02-12</t>
+  </si>
+  <si>
     <t>1915-06-15</t>
   </si>
   <si>
@@ -80,6 +93,9 @@
     <t>1915-07-01</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Wrappers? (yes/no)</t>
   </si>
   <si>
@@ -98,9 +114,6 @@
     <t>Supplementary title or just issue theme?</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans </t>
-  </si>
-  <si>
     <t>Le quadrille (1ère figure)</t>
   </si>
   <si>
@@ -122,13 +135,19 @@
     <t>un bel élan mais ni tête ni bras</t>
   </si>
   <si>
-    <t>19</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>1915-05-01</t>
   </si>
   <si>
-    <t>11</t>
+    <t>14</t>
   </si>
   <si>
     <t>Date as printed</t>
@@ -146,9 +165,15 @@
     <t>Issue/number (integer)</t>
   </si>
   <si>
+    <t>1916-12-01</t>
+  </si>
+  <si>
     <t>le front et le collier de la victoire</t>
   </si>
   <si>
+    <t>Scans ("pageimages")</t>
+  </si>
+  <si>
     <t>Extent (pages)</t>
   </si>
   <si>
@@ -161,6 +186,15 @@
     <t>yes</t>
   </si>
   <si>
+    <t>no 10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Wrappers on front &amp; back cover (images 1 &amp; 20); images on 6 &amp; 7, 10 &amp;11, 14 &amp;15, 18&amp;19 reshot together.</t>
+  </si>
+  <si>
     <t>Wrappers on front &amp; back cover (images 1 &amp; 20); images on 6 &amp; 7, 10 &amp;11, 16 &amp;17, 18&amp;19 reshot together.</t>
   </si>
   <si>
@@ -170,17 +204,31 @@
     <t xml:space="preserve">Wrappers on front &amp; back cover (images 1 &amp; 12); images on 6 &amp; 7 reshot together. </t>
   </si>
   <si>
-    <t>La ronde va se fermet</t>
+    <t>La ronde va se fermer</t>
   </si>
   <si>
     <t>Issue/number (caption)</t>
+  </si>
+  <si>
+    <t>[None]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,44 +262,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma[0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
     <cellStyle name="Currency[0]" xfId="3"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -604,681 +653,798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="17" width="17.140625" style="0" customWidth="1"/>
+    <col min="1" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="17" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5">
+    <row r="1" spans="1:13" ht="36">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="72">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J10" s="1">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="85.5">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="85.5">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" ht="85.5">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" ht="85.5">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" ht="85.5">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" ht="85.5">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="85.5">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="99.75">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="G11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" ht="14.25">
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12">
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:13" ht="12">
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:13" ht="12">
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:13" ht="12">
       <c r="G15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:13" ht="12">
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="7:9" ht="12">
       <c r="G17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="7:9" ht="12">
       <c r="G18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="7:9" ht="12">
       <c r="G19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="7:9" ht="12">
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="7:9" ht="12">
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="7:9" ht="12">
       <c r="G22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="7:9" ht="12">
       <c r="G23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="7:9" ht="12">
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="7:9" ht="12">
       <c r="G25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="7:9" ht="12">
       <c r="G26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="7:9" ht="12">
       <c r="G27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="7:9" ht="12">
       <c r="G28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="7:9" ht="12">
       <c r="G29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="7:9" ht="12">
       <c r="G30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" ht="14.25">
+    <row r="31" spans="7:9" ht="12">
       <c r="G31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="7:9" ht="12">
       <c r="G32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="7:9" ht="12">
       <c r="G33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="7:9" ht="12">
       <c r="G34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="7:9" ht="12">
       <c r="G35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="7:9" ht="12">
       <c r="G36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="7:9" ht="12">
       <c r="G37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" spans="7:9" ht="12">
       <c r="G38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" spans="7:9" ht="12">
       <c r="G39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" ht="14.25">
+    <row r="40" spans="7:9" ht="12">
       <c r="G40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" ht="14.25">
+    <row r="41" spans="7:9" ht="12">
       <c r="G41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" spans="7:9" ht="12">
       <c r="G42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="7:9" ht="12">
       <c r="G43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" spans="7:9" ht="12">
       <c r="G44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" spans="7:9" ht="12">
       <c r="G45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" spans="7:9" ht="12">
       <c r="G46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" spans="7:9" ht="12">
       <c r="G47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" spans="7:9" ht="12">
       <c r="G48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" spans="7:9" ht="12">
       <c r="G49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" spans="7:9" ht="12">
       <c r="G50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" spans="7:9" ht="12">
       <c r="G51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" spans="7:9" ht="12">
       <c r="G52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" spans="7:9" ht="12">
       <c r="G53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" spans="7:9" ht="12">
       <c r="G54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" spans="7:9" ht="12">
       <c r="G55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" spans="7:9" ht="12">
       <c r="G56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" spans="7:9" ht="12">
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" spans="7:9" ht="12">
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" spans="7:9" ht="12">
       <c r="G59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" spans="7:9" ht="12">
       <c r="G60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" spans="7:9" ht="12">
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" spans="7:9" ht="12">
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" spans="7:9" ht="12">
       <c r="G63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" spans="7:9" ht="12">
       <c r="G64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" spans="7:9" ht="12">
       <c r="G65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" spans="7:9" ht="12">
       <c r="G66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" spans="7:9" ht="12">
       <c r="G67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" spans="7:9" ht="12">
       <c r="G68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" spans="7:9" ht="12">
       <c r="G69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" ht="14.25">
+    <row r="70" spans="7:9" ht="12">
       <c r="G70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" ht="14.25">
+    <row r="71" spans="7:9" ht="12">
       <c r="G71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" ht="14.25">
+    <row r="72" spans="7:9" ht="12">
       <c r="G72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" ht="14.25">
+    <row r="73" spans="7:9" ht="12">
       <c r="G73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" ht="14.25">
+    <row r="74" spans="7:9" ht="12">
       <c r="G74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" ht="14.25">
+    <row r="75" spans="7:9" ht="12">
       <c r="G75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" ht="14.25">
+    <row r="76" spans="7:9" ht="12">
       <c r="G76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" ht="14.25">
+    <row r="77" spans="7:9" ht="12">
       <c r="G77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" ht="14.25">
+    <row r="78" spans="7:9" ht="12">
       <c r="G78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" ht="14.25">
+    <row r="79" spans="7:9" ht="12">
       <c r="G79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" ht="14.25">
+    <row r="80" spans="7:9" ht="12">
       <c r="G80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" ht="14.25">
+    <row r="81" spans="7:9" ht="12">
       <c r="G81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" ht="14.25">
+    <row r="82" spans="7:9" ht="12">
       <c r="G82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" ht="14.25">
+    <row r="83" spans="7:9" ht="12">
       <c r="G83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" ht="14.25">
+    <row r="84" spans="7:9" ht="12">
       <c r="G84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" ht="14.25">
+    <row r="85" spans="7:9" ht="12">
       <c r="G85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" ht="14.25">
+    <row r="86" spans="7:9" ht="12">
       <c r="G86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" ht="14.25">
+    <row r="87" spans="7:9" ht="12">
       <c r="G87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" ht="14.25">
+    <row r="88" spans="7:9" ht="12">
       <c r="G88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" ht="14.25">
+    <row r="89" spans="7:9" ht="12">
       <c r="G89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" ht="14.25">
+    <row r="90" spans="7:9" ht="12">
       <c r="G90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" ht="14.25">
+    <row r="91" spans="7:9" ht="12">
       <c r="G91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" ht="14.25">
+    <row r="92" spans="7:9" ht="12">
       <c r="G92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" ht="14.25">
+    <row r="93" spans="7:9" ht="12">
       <c r="G93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" ht="14.25">
+    <row r="94" spans="7:9" ht="12">
       <c r="G94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" ht="14.25">
+    <row r="95" spans="7:9" ht="12">
       <c r="G95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" ht="14.25">
+    <row r="96" spans="7:9" ht="12">
       <c r="G96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" ht="14.25">
+    <row r="97" spans="7:9" ht="12">
       <c r="G97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" ht="14.25">
+    <row r="98" spans="7:9" ht="12">
       <c r="G98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" ht="14.25">
+    <row r="99" spans="7:9" ht="12">
       <c r="G99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" ht="14.25">
+    <row r="100" spans="7:9" ht="12">
       <c r="G100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>